--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Create citizenship from excel</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>02_05_23_183743</t>
+  </si>
+  <si>
+    <t>04_05_23_174117</t>
+  </si>
+  <si>
+    <t>Delete citizenship from excel</t>
+  </si>
+  <si>
+    <t>04_05_23_174143</t>
   </si>
 </sst>
 </file>
@@ -68,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -88,6 +97,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="41">
   <si>
     <t>Create citizenship from excel</t>
   </si>
@@ -33,6 +33,108 @@
   </si>
   <si>
     <t>04_05_23_174143</t>
+  </si>
+  <si>
+    <t>Add citizenship</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>15_05_23_141034</t>
+  </si>
+  <si>
+    <t>15_05_23_141046</t>
+  </si>
+  <si>
+    <t>15_05_23_141057</t>
+  </si>
+  <si>
+    <t>15_05_23_141109</t>
+  </si>
+  <si>
+    <t>Login with valid username and password</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>15_05_23_141535</t>
+  </si>
+  <si>
+    <t>15_05_23_141537</t>
+  </si>
+  <si>
+    <t>15_05_23_141538</t>
+  </si>
+  <si>
+    <t>15_05_23_141539</t>
+  </si>
+  <si>
+    <t>15_05_23_141540</t>
+  </si>
+  <si>
+    <t>15_05_23_141542</t>
+  </si>
+  <si>
+    <t>15_05_23_141551</t>
+  </si>
+  <si>
+    <t>15_05_23_141603</t>
+  </si>
+  <si>
+    <t>15_05_23_141615</t>
+  </si>
+  <si>
+    <t>15_05_23_141627</t>
+  </si>
+  <si>
+    <t>15_05_23_141844</t>
+  </si>
+  <si>
+    <t>15_05_23_141845</t>
+  </si>
+  <si>
+    <t>15_05_23_141857</t>
+  </si>
+  <si>
+    <t>15_05_23_141909</t>
+  </si>
+  <si>
+    <t>15_05_23_141910</t>
+  </si>
+  <si>
+    <t>15_05_23_141921</t>
+  </si>
+  <si>
+    <t>15_05_23_141922</t>
+  </si>
+  <si>
+    <t>15_05_23_141932</t>
+  </si>
+  <si>
+    <t>15_05_23_141934</t>
+  </si>
+  <si>
+    <t>15_05_23_141943</t>
+  </si>
+  <si>
+    <t>Add and delete a employee</t>
+  </si>
+  <si>
+    <t>17_05_23_191514</t>
+  </si>
+  <si>
+    <t>17_05_23_191542</t>
+  </si>
+  <si>
+    <t>17_05_23_191609</t>
+  </si>
+  <si>
+    <t>Create Country</t>
+  </si>
+  <si>
+    <t>17_05_23_191643</t>
   </si>
 </sst>
 </file>
@@ -77,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -125,6 +227,398 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="56">
   <si>
     <t>Create citizenship from excel</t>
   </si>
@@ -135,6 +135,51 @@
   </si>
   <si>
     <t>17_05_23_191643</t>
+  </si>
+  <si>
+    <t>States testing with JDBC</t>
+  </si>
+  <si>
+    <t>22_05_23_235713</t>
+  </si>
+  <si>
+    <t>22_05_23_235959</t>
+  </si>
+  <si>
+    <t>23_05_23_165230</t>
+  </si>
+  <si>
+    <t>23_05_23_165259</t>
+  </si>
+  <si>
+    <t>23_05_23_165358</t>
+  </si>
+  <si>
+    <t>23_05_23_165506</t>
+  </si>
+  <si>
+    <t>23_05_23_165842</t>
+  </si>
+  <si>
+    <t>23_05_23_170050</t>
+  </si>
+  <si>
+    <t>23_05_23_170946</t>
+  </si>
+  <si>
+    <t>23_05_23_171731</t>
+  </si>
+  <si>
+    <t>23_05_23_171902</t>
+  </si>
+  <si>
+    <t>23_05_23_172202</t>
+  </si>
+  <si>
+    <t>23_05_23_172300</t>
+  </si>
+  <si>
+    <t>24_05_23_181251</t>
   </si>
 </sst>
 </file>
@@ -179,7 +224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -619,6 +664,202 @@
         <v>40</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="64">
   <si>
     <t>Create citizenship from excel</t>
   </si>
@@ -180,6 +180,30 @@
   </si>
   <si>
     <t>24_05_23_181251</t>
+  </si>
+  <si>
+    <t>10_06_23_175424</t>
+  </si>
+  <si>
+    <t>10_06_23_175444</t>
+  </si>
+  <si>
+    <t>10_06_23_175857</t>
+  </si>
+  <si>
+    <t>10_06_23_175917</t>
+  </si>
+  <si>
+    <t>11_06_23_121007</t>
+  </si>
+  <si>
+    <t>11_06_23_121027</t>
+  </si>
+  <si>
+    <t>11_06_23_121509</t>
+  </si>
+  <si>
+    <t>11_06_23_121518</t>
   </si>
 </sst>
 </file>
@@ -224,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -860,6 +884,118 @@
         <v>55</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="66">
   <si>
     <t>Create citizenship from excel</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>11_06_23_121518</t>
+  </si>
+  <si>
+    <t>11_06_23_152922</t>
+  </si>
+  <si>
+    <t>11_06_23_152931</t>
   </si>
 </sst>
 </file>
@@ -248,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -996,6 +1002,34 @@
         <v>63</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="68">
   <si>
     <t>Create citizenship from excel</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>11_06_23_152931</t>
+  </si>
+  <si>
+    <t>11_06_23_154502</t>
+  </si>
+  <si>
+    <t>11_06_23_154510</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1030,6 +1036,34 @@
         <v>65</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="76">
   <si>
     <t>Create citizenship from excel</t>
   </si>
@@ -216,6 +216,30 @@
   </si>
   <si>
     <t>11_06_23_154510</t>
+  </si>
+  <si>
+    <t>12_06_23_191833</t>
+  </si>
+  <si>
+    <t>12_06_23_191842</t>
+  </si>
+  <si>
+    <t>12_06_23_191852</t>
+  </si>
+  <si>
+    <t>12_06_23_191903</t>
+  </si>
+  <si>
+    <t>12_06_23_191914</t>
+  </si>
+  <si>
+    <t>12_06_23_191925</t>
+  </si>
+  <si>
+    <t>22_06_23_043238</t>
+  </si>
+  <si>
+    <t>22_06_23_043247</t>
   </si>
 </sst>
 </file>
@@ -260,7 +284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1064,6 +1088,118 @@
         <v>67</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
